--- a/app/server/static/components/examples/upload_text_classification.xlsx
+++ b/app/server/static/components/examples/upload_text_classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armanrahman/doccano-1/app/server/static/components/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e321843\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02802B31-A15C-FE48-9E41-9746366F7963}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D69CE6-0F56-4223-9291-8437902446DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="1770" windowWidth="22125" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upload_text_classification" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>text</t>
   </si>
   <si>
-    <t>Terrible customer service.</t>
+    <t>Awesome web design</t>
   </si>
   <si>
-    <t>Really great transaction.</t>
+    <t>Terrible web applications.</t>
   </si>
   <si>
-    <t>Great price.</t>
+    <t>Great and accuracy models.</t>
   </si>
 </sst>
 </file>
@@ -874,31 +874,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
